--- a/stata_outputs/figures_table/coefficent_plot_table.xlsx
+++ b/stata_outputs/figures_table/coefficent_plot_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bisrat/Library/CloudStorage/Dropbox/Commercialization/Final revision/Code_Base/stata_outputs/figures_table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\Commercialization\Final revision\Adoption-of-Climate-Resilient-Groundnut-Varieties\stata_outputs\figures_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DED874-E0EE-7944-8641-88B52A2B9AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE36393-1707-433C-BE63-5970BF5095FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18120" yWindow="480" windowWidth="17720" windowHeight="21920" xr2:uid="{84048606-9F09-4140-B65F-DDB4A8F9D929}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{84048606-9F09-4140-B65F-DDB4A8F9D929}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,12 +498,16 @@
   <dimension ref="A2:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -541,7 +545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -573,7 +577,7 @@
         <v>0.27352500000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -605,7 +609,7 @@
         <v>0.42096499999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -637,7 +641,7 @@
         <v>0.45116099999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -666,7 +670,7 @@
         <v>0.27340500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -695,7 +699,7 @@
         <v>0.42077799999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -724,7 +728,7 @@
         <v>0.45097399999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -756,7 +760,7 @@
         <v>0.616205</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -788,7 +792,7 @@
         <v>0.59374499999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -820,7 +824,7 @@
         <v>0.18106700000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -852,7 +856,7 @@
         <v>0.62157899999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -884,7 +888,7 @@
         <v>0.61273599999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -916,7 +920,7 @@
         <v>0.15643899999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -945,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -974,7 +978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1061,7 +1065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1130,10 +1134,10 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>0.40600000000000003</v>
+        <v>0.37</v>
       </c>
       <c r="D22">
-        <v>7.8E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1142,10 +1146,10 @@
         <v>13</v>
       </c>
       <c r="G22">
-        <v>0.252</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="H22">
-        <v>0.55900000000000005</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -1154,7 +1158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1194,10 +1198,10 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>0.39</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D24">
-        <v>7.1999999999999995E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1206,10 +1210,10 @@
         <v>13</v>
       </c>
       <c r="G24">
-        <v>0.248</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H24">
-        <v>0.53100000000000003</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -1218,7 +1222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1258,22 +1262,22 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>4.3999999999999997E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D26">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26">
-        <v>2.1999999999999999E-2</v>
-      </c>
       <c r="H26">
-        <v>6.7000000000000004E-2</v>
+        <v>0.06</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -1282,7 +1286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1290,22 +1294,22 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>6.3E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D27">
-        <v>1.6E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27">
-        <v>3.1E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H27">
-        <v>9.5000000000000001E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="I27">
         <v>4</v>
@@ -1314,7 +1318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1354,10 +1358,10 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>0.58299999999999996</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D29">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1366,10 +1370,10 @@
         <v>13</v>
       </c>
       <c r="G29">
-        <v>0.36699999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="H29">
-        <v>0.79900000000000004</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="I29">
         <v>4</v>
@@ -1378,29 +1382,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
         <v>0.33</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>0.85699999999999998</v>
       </c>
       <c r="I30">
@@ -1410,7 +1414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1418,10 +1422,10 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>0.56000000000000005</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D31">
-        <v>0.10100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1430,10 +1434,10 @@
         <v>13</v>
       </c>
       <c r="G31">
-        <v>0.36199999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="H31">
-        <v>0.75900000000000001</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -1442,7 +1446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1532,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1561,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1771,7 +1775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1803,7 +1807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1922,7 +1926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1951,7 +1955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1980,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
